--- a/dependencies/bi/taylorella/te_09-0932/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/taylorella/te_09-0932/script_dependents/Filtered_Regions.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/taylorella/vsnp/te_/script_dependents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/taylorella/vsnp/te_09-0932/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CCDDF4-81EA-DD4A-A0E0-58CB4E06F70E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B1B88C-4F84-F94A-B35B-D427D2917B29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52700" yWindow="7360" windowWidth="18520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-2240" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CHROM" sheetId="2" r:id="rId1"/>
+    <sheet name="NZ_CP021201.1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -28,9 +28,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>te_SAMPLEDESIGNATION-All</t>
+    <t>1034828</t>
+  </si>
+  <si>
+    <t>406316</t>
+  </si>
+  <si>
+    <t>406337</t>
+  </si>
+  <si>
+    <t>407417</t>
+  </si>
+  <si>
+    <t>1437159</t>
+  </si>
+  <si>
+    <t>1436983</t>
+  </si>
+  <si>
+    <t>1564433</t>
+  </si>
+  <si>
+    <t>te-09-0932-All</t>
+  </si>
+  <si>
+    <t>te-09-0932-02</t>
   </si>
 </sst>
 </file>
@@ -1402,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A117"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1414,54 +1438,72 @@
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
